--- a/src/Qiosk.App/bin/Release/net8.0-windows7.0/Data/attendees.xlsx
+++ b/src/Qiosk.App/bin/Release/net8.0-windows7.0/Data/attendees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qiosk\src\Qiosk.App\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qiosk\src\Qiosk.App\bin\Release\net8.0-windows7.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C734BEB-EA11-4E31-B915-69D1EED95748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2D111-FB01-4D74-907F-6867F78D0E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,18 +42,6 @@
     <t>COMPANIE</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Corect-Alpha</t>
-  </si>
-  <si>
-    <t>Primar</t>
-  </si>
-  <si>
-    <t>Siret</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -64,6 +52,18 @@
   </si>
   <si>
     <t>Iasi</t>
+  </si>
+  <si>
+    <t>Raluca</t>
+  </si>
+  <si>
+    <t>Sofrone</t>
+  </si>
+  <si>
+    <t>Team Leader Marketing</t>
+  </si>
+  <si>
+    <t>Quartz Matrix</t>
   </si>
 </sst>
 </file>
@@ -384,11 +384,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
@@ -416,16 +418,16 @@
         <v>10788</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -433,16 +435,16 @@
         <v>10722</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/Qiosk.App/bin/Release/net8.0-windows7.0/Data/attendees.xlsx
+++ b/src/Qiosk.App/bin/Release/net8.0-windows7.0/Data/attendees.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qiosk\src\Qiosk.App\bin\Release\net8.0-windows7.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2D111-FB01-4D74-907F-6867F78D0E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D636524-12B4-498D-887E-FFA757E6FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,21 @@
     <t>COMPANIE</t>
   </si>
   <si>
+    <t>PREZENT</t>
+  </si>
+  <si>
+    <t>Sofrone</t>
+  </si>
+  <si>
+    <t>Raluca</t>
+  </si>
+  <si>
+    <t>Team Leader Marketing</t>
+  </si>
+  <si>
+    <t>Quartz Matrix</t>
+  </si>
+  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -54,16 +69,10 @@
     <t>Iasi</t>
   </si>
   <si>
-    <t>Raluca</t>
-  </si>
-  <si>
-    <t>Sofrone</t>
-  </si>
-  <si>
-    <t>Team Leader Marketing</t>
-  </si>
-  <si>
-    <t>Quartz Matrix</t>
+    <t>Ora check in</t>
+  </si>
+  <si>
+    <t>Print Badge</t>
   </si>
 </sst>
 </file>
@@ -381,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,11 +401,13 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,39 +423,48 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10788</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10722</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Qiosk.App/bin/Release/net8.0-windows7.0/Data/attendees.xlsx
+++ b/src/Qiosk.App/bin/Release/net8.0-windows7.0/Data/attendees.xlsx
@@ -1,130 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Qiosk\src\Qiosk.App\bin\Release\net8.0-windows7.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D636524-12B4-498D-887E-FFA757E6FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C185945-5A8F-4401-A38D-F16ECBD29900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NUME</t>
-  </si>
-  <si>
-    <t>PRENUME</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>COMPANIE</t>
-  </si>
-  <si>
-    <t>PREZENT</t>
-  </si>
-  <si>
-    <t>Sofrone</t>
-  </si>
-  <si>
-    <t>Raluca</t>
-  </si>
-  <si>
-    <t>Team Leader Marketing</t>
-  </si>
-  <si>
-    <t>Quartz Matrix</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Gresit</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Iasi</t>
-  </si>
-  <si>
-    <t>Ora check in</t>
-  </si>
-  <si>
-    <t>Print Badge</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRENUME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMPANIE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PREZENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ora check in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Print Badge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.quartzmatrix.ro/wp-admin/edit.php?post_type=etn-attendee&amp;etn_action=ticket_scanner&amp;attendee_id=10788&amp;ticket_id=mh063yroy6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Petrisor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carmen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fortinet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prezent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14:38</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,85 +410,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10788</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10722</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D8" sqref="D8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="42.285156" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.425781" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="21.855469" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.285156" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.855469" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="13.425781" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="1"/>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A2" r:id="rId5"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>